--- a/Sueldo y proyecto de RTX 3070.xlsx
+++ b/Sueldo y proyecto de RTX 3070.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ELJAIDROSO\Documents\GitHub\Cortes\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{787B130F-1B64-425B-9257-9B287DA628DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -62,7 +63,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
@@ -388,11 +389,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="B30" sqref="A30:XFD30"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -484,11 +485,11 @@
       </c>
       <c r="I4" s="2">
         <f>30000-D14-D21-D29-D37-H10-H17-H25-H33</f>
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="J4" s="3">
         <f>H10+H17+H25+H33</f>
-        <v>6000</v>
+        <v>8000</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -579,22 +580,22 @@
         <v>0</v>
       </c>
       <c r="D10" s="2">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="E10" s="2">
         <v>350</v>
       </c>
       <c r="F10" s="3">
         <f>B10-C10-D10-E10</f>
-        <v>950</v>
+        <v>1950</v>
       </c>
       <c r="G10" s="3">
         <f>SUM(F10:F13)</f>
-        <v>3000</v>
+        <v>7000</v>
       </c>
       <c r="H10" s="3">
         <f>G10/2</f>
-        <v>1500</v>
+        <v>3500</v>
       </c>
       <c r="I10" s="1"/>
     </row>
@@ -609,14 +610,14 @@
         <v>0</v>
       </c>
       <c r="D11" s="2">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="E11" s="2">
         <v>350</v>
       </c>
       <c r="F11" s="3">
         <f t="shared" ref="F11:F13" si="1">B11-C11-D11-E11</f>
-        <v>950</v>
+        <v>1950</v>
       </c>
       <c r="I11" s="1"/>
     </row>
@@ -631,14 +632,14 @@
         <v>0</v>
       </c>
       <c r="D12" s="2">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="E12" s="2">
         <v>350</v>
       </c>
       <c r="F12" s="3">
         <f t="shared" si="1"/>
-        <v>950</v>
+        <v>1950</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
@@ -652,20 +653,20 @@
         <v>800</v>
       </c>
       <c r="D13" s="2">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="E13" s="2">
         <v>350</v>
       </c>
       <c r="F13" s="3">
         <f t="shared" si="1"/>
-        <v>150</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D14" s="3">
         <f>SUM(D10:D13)</f>
-        <v>4000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">

--- a/Sueldo y proyecto de RTX 3070.xlsx
+++ b/Sueldo y proyecto de RTX 3070.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ELJAIDROSO\Documents\GitHub\Cortes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{787B130F-1B64-425B-9257-9B287DA628DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3385C91-9AD4-4B67-9035-91101FD45925}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,15 +25,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="9">
   <si>
     <t>Saldo</t>
   </si>
   <si>
     <t>Fecha</t>
-  </si>
-  <si>
-    <t>Coopel</t>
   </si>
   <si>
     <t>Gasolina</t>
@@ -48,16 +45,13 @@
     <t>Subtotal</t>
   </si>
   <si>
-    <t>Saldo restante del mes</t>
+    <t>Proyecto RTX 3070</t>
   </si>
   <si>
-    <t>RTX 3070</t>
+    <t>Total restante para gastar mensualmente</t>
   </si>
   <si>
-    <t>Deuda del GPU</t>
-  </si>
-  <si>
-    <t>Suma de saldo restante anual</t>
+    <t>Juego de Hugo</t>
   </si>
 </sst>
 </file>
@@ -104,11 +98,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
@@ -392,13 +389,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="21.42578125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="14.140625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="21.85546875" bestFit="1" customWidth="1"/>
@@ -408,33 +406,34 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
+      <c r="G1" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G2" t="s">
-        <v>7</v>
-      </c>
+      <c r="G2" s="4"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>44422</v>
+        <v>44464</v>
       </c>
       <c r="B3" s="2">
         <v>2300</v>
@@ -443,29 +442,23 @@
         <v>0</v>
       </c>
       <c r="D3" s="2">
-        <v>1900</v>
+        <v>1550</v>
       </c>
       <c r="E3" s="2">
         <v>350</v>
       </c>
       <c r="F3" s="3">
         <f>B3-C3-D3-E3</f>
-        <v>50</v>
+        <v>400</v>
       </c>
       <c r="G3" s="3">
-        <f>SUM(F3:F6)</f>
-        <v>3200</v>
-      </c>
-      <c r="I3" t="s">
-        <v>9</v>
-      </c>
-      <c r="J3" t="s">
-        <v>10</v>
+        <f>F3+F4+F5+F6</f>
+        <v>5430</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>44429</v>
+        <v>44471</v>
       </c>
       <c r="B4" s="2">
         <v>2300</v>
@@ -474,33 +467,27 @@
         <v>0</v>
       </c>
       <c r="D4" s="2">
-        <v>1900</v>
+        <v>0</v>
       </c>
       <c r="E4" s="2">
         <v>350</v>
       </c>
       <c r="F4" s="3">
         <f t="shared" ref="F4:F6" si="0">B4-C4-D4-E4</f>
-        <v>50</v>
-      </c>
-      <c r="I4" s="2">
-        <f>30000-D14-D21-D29-D37-H10-H17-H25-H33</f>
-        <v>10000</v>
-      </c>
-      <c r="J4" s="3">
-        <f>H10+H17+H25+H33</f>
-        <v>8000</v>
-      </c>
+        <v>1950</v>
+      </c>
+      <c r="I4" s="2"/>
+      <c r="J4" s="3"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>44436</v>
+        <v>44478</v>
       </c>
       <c r="B5" s="2">
         <v>2300</v>
       </c>
       <c r="C5" s="2">
-        <v>0</v>
+        <v>820</v>
       </c>
       <c r="D5" s="2">
         <v>0</v>
@@ -510,18 +497,18 @@
       </c>
       <c r="F5" s="3">
         <f t="shared" si="0"/>
-        <v>1950</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>44443</v>
+        <v>44485</v>
       </c>
       <c r="B6" s="2">
         <v>2300</v>
       </c>
       <c r="C6" s="2">
-        <v>800</v>
+        <v>0</v>
       </c>
       <c r="D6" s="2">
         <v>0</v>
@@ -531,7 +518,7 @@
       </c>
       <c r="F6" s="3">
         <f t="shared" si="0"/>
-        <v>1150</v>
+        <v>1950</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -540,38 +527,59 @@
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="F7" s="3"/>
+      <c r="G7" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="B8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" t="s">
+        <v>2</v>
+      </c>
+      <c r="F8" t="s">
+        <v>5</v>
+      </c>
+      <c r="G8" s="4"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>1</v>
-      </c>
-      <c r="B9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E9" t="s">
-        <v>3</v>
-      </c>
-      <c r="F9" t="s">
-        <v>6</v>
-      </c>
-      <c r="G9" t="s">
-        <v>7</v>
+      <c r="A9" s="1">
+        <v>44492</v>
+      </c>
+      <c r="B9" s="2">
+        <v>2300</v>
+      </c>
+      <c r="C9" s="2">
+        <v>0</v>
+      </c>
+      <c r="D9" s="2">
+        <v>1000</v>
+      </c>
+      <c r="E9" s="2">
+        <v>350</v>
+      </c>
+      <c r="F9" s="3">
+        <f>B9-C9-D9-E9</f>
+        <v>950</v>
+      </c>
+      <c r="G9" s="3">
+        <f>F9+F10+F11+F12</f>
+        <v>2980</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>44450</v>
+        <v>44499</v>
       </c>
       <c r="B10" s="2">
         <v>2300</v>
@@ -580,50 +588,44 @@
         <v>0</v>
       </c>
       <c r="D10" s="2">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="E10" s="2">
         <v>350</v>
       </c>
       <c r="F10" s="3">
-        <f>B10-C10-D10-E10</f>
-        <v>1950</v>
-      </c>
-      <c r="G10" s="3">
-        <f>SUM(F10:F13)</f>
-        <v>7000</v>
-      </c>
-      <c r="H10" s="3">
-        <f>G10/2</f>
-        <v>3500</v>
-      </c>
+        <f t="shared" ref="F10:F12" si="1">B10-C10-D10-E10</f>
+        <v>950</v>
+      </c>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
       <c r="I10" s="1"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>44457</v>
+        <v>44506</v>
       </c>
       <c r="B11" s="2">
         <v>2300</v>
       </c>
       <c r="C11" s="2">
-        <v>0</v>
+        <v>820</v>
       </c>
       <c r="D11" s="2">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="E11" s="2">
         <v>350</v>
       </c>
       <c r="F11" s="3">
-        <f t="shared" ref="F11:F13" si="1">B11-C11-D11-E11</f>
-        <v>1950</v>
+        <f t="shared" si="1"/>
+        <v>130</v>
       </c>
       <c r="I11" s="1"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>44464</v>
+        <v>44513</v>
       </c>
       <c r="B12" s="2">
         <v>2300</v>
@@ -632,80 +634,102 @@
         <v>0</v>
       </c>
       <c r="D12" s="2">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="E12" s="2">
         <v>350</v>
       </c>
       <c r="F12" s="3">
         <f t="shared" si="1"/>
-        <v>1950</v>
+        <v>950</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
-        <v>44471</v>
-      </c>
-      <c r="B13" s="2">
-        <v>2300</v>
-      </c>
-      <c r="C13" s="2">
-        <v>800</v>
-      </c>
-      <c r="D13" s="2">
-        <v>0</v>
-      </c>
-      <c r="E13" s="2">
-        <v>350</v>
-      </c>
-      <c r="F13" s="3">
-        <f t="shared" si="1"/>
-        <v>1150</v>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="4" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D14" s="3">
-        <f>SUM(D10:D13)</f>
-        <v>0</v>
-      </c>
+      <c r="A14" t="s">
+        <v>1</v>
+      </c>
+      <c r="B14" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14" t="s">
+        <v>3</v>
+      </c>
+      <c r="D14" t="s">
+        <v>6</v>
+      </c>
+      <c r="E14" t="s">
+        <v>2</v>
+      </c>
+      <c r="F14" t="s">
+        <v>5</v>
+      </c>
+      <c r="G14" s="4"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>0</v>
+      <c r="A15" s="1">
+        <v>44520</v>
+      </c>
+      <c r="B15" s="2">
+        <v>2300</v>
+      </c>
+      <c r="C15" s="2">
+        <v>0</v>
+      </c>
+      <c r="D15" s="2">
+        <v>1000</v>
+      </c>
+      <c r="E15" s="2">
+        <v>350</v>
+      </c>
+      <c r="F15" s="3">
+        <f>B15-C15-D15-E15</f>
+        <v>950</v>
+      </c>
+      <c r="G15" s="3">
+        <f>F15+F16+F17+F18</f>
+        <v>2980</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>1</v>
-      </c>
-      <c r="B16" t="s">
-        <v>5</v>
-      </c>
-      <c r="C16" t="s">
-        <v>4</v>
-      </c>
-      <c r="D16" t="s">
-        <v>8</v>
-      </c>
-      <c r="E16" t="s">
-        <v>3</v>
-      </c>
-      <c r="F16" t="s">
-        <v>6</v>
-      </c>
-      <c r="G16" t="s">
-        <v>7</v>
+      <c r="A16" s="1">
+        <v>44527</v>
+      </c>
+      <c r="B16" s="2">
+        <v>2300</v>
+      </c>
+      <c r="C16" s="2">
+        <v>0</v>
+      </c>
+      <c r="D16" s="2">
+        <v>1000</v>
+      </c>
+      <c r="E16" s="2">
+        <v>350</v>
+      </c>
+      <c r="F16" s="3">
+        <f t="shared" ref="F16:F18" si="2">B16-C16-D16-E16</f>
+        <v>950</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>44478</v>
+        <v>44534</v>
       </c>
       <c r="B17" s="2">
         <v>2300</v>
       </c>
       <c r="C17" s="2">
-        <v>0</v>
+        <v>820</v>
       </c>
       <c r="D17" s="2">
         <v>1000</v>
@@ -714,21 +738,14 @@
         <v>350</v>
       </c>
       <c r="F17" s="3">
-        <f>B17-C17-D17-E17</f>
-        <v>950</v>
-      </c>
-      <c r="G17" s="3">
-        <f>SUM(F17:F20)</f>
-        <v>3000</v>
-      </c>
-      <c r="H17" s="3">
-        <f>G17/2</f>
-        <v>1500</v>
-      </c>
+        <f t="shared" si="2"/>
+        <v>130</v>
+      </c>
+      <c r="G17" s="3"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>44485</v>
+        <v>44541</v>
       </c>
       <c r="B18" s="2">
         <v>2300</v>
@@ -743,311 +760,204 @@
         <v>350</v>
       </c>
       <c r="F18" s="3">
-        <f t="shared" ref="F18:F20" si="2">B18-C18-D18-E18</f>
-        <v>950</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
-        <v>44492</v>
-      </c>
-      <c r="B19" s="2">
-        <v>2300</v>
-      </c>
-      <c r="C19" s="2">
-        <v>0</v>
-      </c>
-      <c r="D19" s="2">
-        <v>1000</v>
-      </c>
-      <c r="E19" s="2">
-        <v>350</v>
-      </c>
-      <c r="F19" s="3">
         <f t="shared" si="2"/>
         <v>950</v>
       </c>
     </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
-        <v>44499</v>
-      </c>
-      <c r="B20" s="2">
-        <v>2300</v>
-      </c>
-      <c r="C20" s="2">
-        <v>800</v>
-      </c>
-      <c r="D20" s="2">
-        <v>1000</v>
-      </c>
-      <c r="E20" s="2">
-        <v>350</v>
-      </c>
-      <c r="F20" s="3">
-        <f t="shared" si="2"/>
-        <v>150</v>
-      </c>
+      <c r="A20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B20" t="s">
+        <v>4</v>
+      </c>
+      <c r="C20" t="s">
+        <v>3</v>
+      </c>
+      <c r="D20" t="s">
+        <v>6</v>
+      </c>
+      <c r="E20" t="s">
+        <v>2</v>
+      </c>
+      <c r="F20" t="s">
+        <v>5</v>
+      </c>
+      <c r="G20" s="4"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D21" s="3">
-        <f>SUM(D17:D20)</f>
-        <v>4000</v>
+      <c r="A21" s="1">
+        <v>44548</v>
+      </c>
+      <c r="B21" s="2">
+        <v>2300</v>
+      </c>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2">
+        <v>1000</v>
+      </c>
+      <c r="E21" s="2">
+        <v>350</v>
+      </c>
+      <c r="F21" s="2">
+        <f>B21-C21-D21-E21</f>
+        <v>950</v>
+      </c>
+      <c r="G21" s="3">
+        <f>F21+F22+F23+F24</f>
+        <v>2980</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>44555</v>
+      </c>
+      <c r="B22" s="2">
+        <v>2300</v>
+      </c>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2">
+        <v>1000</v>
+      </c>
+      <c r="E22" s="2">
+        <v>350</v>
+      </c>
+      <c r="F22" s="2">
+        <f t="shared" ref="F22:F24" si="3">B22-C22-D22-E22</f>
+        <v>950</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>1</v>
-      </c>
-      <c r="B24" t="s">
-        <v>5</v>
-      </c>
-      <c r="C24" t="s">
-        <v>4</v>
-      </c>
-      <c r="D24" t="s">
-        <v>8</v>
-      </c>
-      <c r="E24" t="s">
-        <v>3</v>
-      </c>
-      <c r="F24" t="s">
-        <v>6</v>
-      </c>
-      <c r="G24" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="1">
-        <v>44506</v>
-      </c>
-      <c r="B25" s="2">
-        <v>2300</v>
-      </c>
-      <c r="C25" s="2">
-        <v>0</v>
-      </c>
-      <c r="D25" s="2">
-        <v>1000</v>
-      </c>
-      <c r="E25" s="2">
-        <v>350</v>
-      </c>
-      <c r="F25" s="3">
-        <f>B25-C25-D25-E25</f>
-        <v>950</v>
-      </c>
-      <c r="G25" s="3">
-        <f>SUM(F25:F28)</f>
-        <v>3000</v>
-      </c>
-      <c r="H25" s="3">
-        <f>G25/2</f>
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="1">
-        <v>44513</v>
-      </c>
-      <c r="B26" s="2">
-        <v>2300</v>
-      </c>
-      <c r="C26" s="2">
-        <v>0</v>
-      </c>
-      <c r="D26" s="2">
-        <v>1000</v>
-      </c>
-      <c r="E26" s="2">
-        <v>350</v>
-      </c>
-      <c r="F26" s="3">
-        <f t="shared" ref="F26:F28" si="3">B26-C26-D26-E26</f>
-        <v>950</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="1">
-        <v>44520</v>
-      </c>
-      <c r="B27" s="2">
-        <v>2300</v>
-      </c>
-      <c r="C27" s="2">
-        <v>0</v>
-      </c>
-      <c r="D27" s="2">
-        <v>1000</v>
-      </c>
-      <c r="E27" s="2">
-        <v>350</v>
-      </c>
-      <c r="F27" s="3">
+      <c r="A23" s="1">
+        <v>44562</v>
+      </c>
+      <c r="B23" s="2">
+        <v>2300</v>
+      </c>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2">
+        <v>1000</v>
+      </c>
+      <c r="E23" s="2">
+        <v>350</v>
+      </c>
+      <c r="F23" s="2">
         <f t="shared" si="3"/>
         <v>950</v>
       </c>
     </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>44569</v>
+      </c>
+      <c r="B24" s="2">
+        <v>2300</v>
+      </c>
+      <c r="C24" s="2">
+        <v>820</v>
+      </c>
+      <c r="D24" s="2">
+        <v>1000</v>
+      </c>
+      <c r="E24" s="2">
+        <v>350</v>
+      </c>
+      <c r="F24" s="2">
+        <f t="shared" si="3"/>
+        <v>130</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="1"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="1"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="3"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="1"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="3"/>
+    </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="1">
-        <v>44527</v>
-      </c>
-      <c r="B28" s="2">
-        <v>2300</v>
-      </c>
-      <c r="C28" s="2">
-        <v>800</v>
-      </c>
-      <c r="D28" s="2">
-        <v>1000</v>
-      </c>
-      <c r="E28" s="2">
-        <v>350</v>
-      </c>
-      <c r="F28" s="3">
-        <f t="shared" si="3"/>
-        <v>150</v>
-      </c>
+      <c r="A28" s="1"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="3"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D29" s="3">
-        <f>SUM(D25:D28)</f>
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>1</v>
-      </c>
-      <c r="B32" t="s">
-        <v>5</v>
-      </c>
-      <c r="C32" t="s">
-        <v>4</v>
-      </c>
-      <c r="D32" t="s">
-        <v>8</v>
-      </c>
-      <c r="E32" t="s">
-        <v>3</v>
-      </c>
-      <c r="F32" t="s">
-        <v>6</v>
-      </c>
-      <c r="G32" t="s">
-        <v>7</v>
-      </c>
+      <c r="D29" s="3"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="1">
-        <v>44534</v>
-      </c>
-      <c r="B33" s="2">
-        <v>2300</v>
-      </c>
-      <c r="C33" s="2">
-        <v>0</v>
-      </c>
-      <c r="D33" s="2">
-        <v>1000</v>
-      </c>
-      <c r="E33" s="2">
-        <v>350</v>
-      </c>
-      <c r="F33" s="3">
-        <f>B33-C33-D33-E33</f>
-        <v>950</v>
-      </c>
-      <c r="G33" s="3">
-        <f>SUM(F33:F36)</f>
-        <v>3000</v>
-      </c>
-      <c r="H33" s="3">
-        <f>G33/2</f>
-        <v>1500</v>
-      </c>
+      <c r="A33" s="1"/>
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="3"/>
+      <c r="H33" s="3"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="1">
-        <v>44541</v>
-      </c>
-      <c r="B34" s="2">
-        <v>2300</v>
-      </c>
-      <c r="C34" s="2">
-        <v>0</v>
-      </c>
-      <c r="D34" s="2">
-        <v>1000</v>
-      </c>
-      <c r="E34" s="2">
-        <v>350</v>
-      </c>
-      <c r="F34" s="3">
-        <f t="shared" ref="F34:F36" si="4">B34-C34-D34-E34</f>
-        <v>950</v>
-      </c>
+      <c r="A34" s="1"/>
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="3"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="1">
-        <v>44548</v>
-      </c>
-      <c r="B35" s="2">
-        <v>2300</v>
-      </c>
-      <c r="C35" s="2">
-        <v>0</v>
-      </c>
-      <c r="D35" s="2">
-        <v>1000</v>
-      </c>
-      <c r="E35" s="2">
-        <v>350</v>
-      </c>
-      <c r="F35" s="3">
-        <f t="shared" si="4"/>
-        <v>950</v>
-      </c>
+      <c r="A35" s="1"/>
+      <c r="B35" s="2"/>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="3"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="1">
-        <v>44555</v>
-      </c>
-      <c r="B36" s="2">
-        <v>2300</v>
-      </c>
-      <c r="C36" s="2">
-        <v>800</v>
-      </c>
-      <c r="D36" s="2">
-        <v>1000</v>
-      </c>
-      <c r="E36" s="2">
-        <v>350</v>
-      </c>
-      <c r="F36" s="3">
-        <f t="shared" si="4"/>
-        <v>150</v>
-      </c>
+      <c r="A36" s="1"/>
+      <c r="B36" s="2"/>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="3"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D37" s="3">
-        <f>SUM(D33:D36)</f>
-        <v>4000</v>
-      </c>
+      <c r="D37" s="3"/>
     </row>
   </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="G19:G20"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Sueldo y proyecto de RTX 3070.xlsx
+++ b/Sueldo y proyecto de RTX 3070.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ELJAIDROSO\Documents\GitHub\Cortes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HYDRA999\Documents\GitHub\Cortes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3385C91-9AD4-4B67-9035-91101FD45925}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="10">
   <si>
     <t>Saldo</t>
   </si>
@@ -53,11 +52,14 @@
   <si>
     <t>Juego de Hugo</t>
   </si>
+  <si>
+    <t>Ingresos para el proyecto</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
@@ -386,11 +388,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -398,7 +400,7 @@
     <col min="1" max="1" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="21.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="23.28515625" customWidth="1"/>
     <col min="10" max="10" width="21.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -430,6 +432,9 @@
         <v>5</v>
       </c>
       <c r="G2" s="4"/>
+      <c r="I2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
@@ -453,7 +458,11 @@
       </c>
       <c r="G3" s="3">
         <f>F3+F4+F5+F6</f>
-        <v>5430</v>
+        <v>1590</v>
+      </c>
+      <c r="I3" s="3">
+        <f>D7+D13+D19+D25+D31</f>
+        <v>30640</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -467,14 +476,15 @@
         <v>0</v>
       </c>
       <c r="D4" s="2">
-        <v>0</v>
+        <f>700+240</f>
+        <v>940</v>
       </c>
       <c r="E4" s="2">
         <v>350</v>
       </c>
       <c r="F4" s="3">
         <f t="shared" ref="F4:F6" si="0">B4-C4-D4-E4</f>
-        <v>1950</v>
+        <v>1010</v>
       </c>
       <c r="I4" s="2"/>
       <c r="J4" s="3"/>
@@ -490,14 +500,14 @@
         <v>820</v>
       </c>
       <c r="D5" s="2">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="E5" s="2">
         <v>350</v>
       </c>
       <c r="F5" s="3">
         <f t="shared" si="0"/>
-        <v>1130</v>
+        <v>130</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -511,20 +521,23 @@
         <v>0</v>
       </c>
       <c r="D6" s="2">
-        <v>0</v>
+        <v>1900</v>
       </c>
       <c r="E6" s="2">
         <v>350</v>
       </c>
       <c r="F6" s="3">
         <f t="shared" si="0"/>
-        <v>1950</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
+      <c r="D7" s="2">
+        <f>SUM(D4:D6)</f>
+        <v>3840</v>
+      </c>
       <c r="E7" s="2"/>
       <c r="F7" s="3"/>
       <c r="G7" s="4" t="s">
@@ -563,18 +576,18 @@
         <v>0</v>
       </c>
       <c r="D9" s="2">
-        <v>1000</v>
+        <v>1900</v>
       </c>
       <c r="E9" s="2">
         <v>350</v>
       </c>
       <c r="F9" s="3">
         <f>B9-C9-D9-E9</f>
-        <v>950</v>
+        <v>50</v>
       </c>
       <c r="G9" s="3">
         <f>F9+F10+F11+F12</f>
-        <v>2980</v>
+        <v>280</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -588,14 +601,14 @@
         <v>0</v>
       </c>
       <c r="D10" s="2">
-        <v>1000</v>
+        <v>1900</v>
       </c>
       <c r="E10" s="2">
         <v>350</v>
       </c>
       <c r="F10" s="3">
         <f t="shared" ref="F10:F12" si="1">B10-C10-D10-E10</f>
-        <v>950</v>
+        <v>50</v>
       </c>
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
@@ -634,20 +647,23 @@
         <v>0</v>
       </c>
       <c r="D12" s="2">
-        <v>1000</v>
+        <v>1900</v>
       </c>
       <c r="E12" s="2">
         <v>350</v>
       </c>
       <c r="F12" s="3">
         <f t="shared" si="1"/>
-        <v>950</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
+      <c r="D13" s="2">
+        <f>SUM(D9:D12)</f>
+        <v>6700</v>
+      </c>
       <c r="E13" s="2"/>
       <c r="F13" s="3"/>
       <c r="G13" s="4" t="s">
@@ -686,18 +702,18 @@
         <v>0</v>
       </c>
       <c r="D15" s="2">
-        <v>1000</v>
+        <v>1900</v>
       </c>
       <c r="E15" s="2">
         <v>350</v>
       </c>
       <c r="F15" s="3">
         <f>B15-C15-D15-E15</f>
-        <v>950</v>
+        <v>50</v>
       </c>
       <c r="G15" s="3">
         <f>F15+F16+F17+F18</f>
-        <v>2980</v>
+        <v>280</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -711,14 +727,14 @@
         <v>0</v>
       </c>
       <c r="D16" s="2">
-        <v>1000</v>
+        <v>1900</v>
       </c>
       <c r="E16" s="2">
         <v>350</v>
       </c>
       <c r="F16" s="3">
         <f t="shared" ref="F16:F18" si="2">B16-C16-D16-E16</f>
-        <v>950</v>
+        <v>50</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -754,20 +770,23 @@
         <v>0</v>
       </c>
       <c r="D18" s="2">
-        <v>1000</v>
+        <v>1900</v>
       </c>
       <c r="E18" s="2">
         <v>350</v>
       </c>
       <c r="F18" s="3">
         <f t="shared" si="2"/>
-        <v>950</v>
+        <v>50</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
+      <c r="D19" s="2">
+        <f>SUM(D15:D18)</f>
+        <v>6700</v>
+      </c>
       <c r="E19" s="2"/>
       <c r="F19" s="3"/>
       <c r="G19" s="4" t="s">
@@ -804,18 +823,18 @@
       </c>
       <c r="C21" s="2"/>
       <c r="D21" s="2">
-        <v>1000</v>
+        <v>1900</v>
       </c>
       <c r="E21" s="2">
         <v>350</v>
       </c>
       <c r="F21" s="2">
         <f>B21-C21-D21-E21</f>
-        <v>950</v>
+        <v>50</v>
       </c>
       <c r="G21" s="3">
         <f>F21+F22+F23+F24</f>
-        <v>2980</v>
+        <v>280</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
@@ -827,14 +846,14 @@
       </c>
       <c r="C22" s="2"/>
       <c r="D22" s="2">
-        <v>1000</v>
+        <v>1900</v>
       </c>
       <c r="E22" s="2">
         <v>350</v>
       </c>
       <c r="F22" s="2">
         <f t="shared" ref="F22:F24" si="3">B22-C22-D22-E22</f>
-        <v>950</v>
+        <v>50</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
@@ -846,14 +865,14 @@
       </c>
       <c r="C23" s="2"/>
       <c r="D23" s="2">
-        <v>1000</v>
+        <v>1900</v>
       </c>
       <c r="E23" s="2">
         <v>350</v>
       </c>
       <c r="F23" s="2">
         <f t="shared" si="3"/>
-        <v>950</v>
+        <v>50</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
@@ -878,41 +897,129 @@
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="1"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
+      <c r="D25" s="2">
+        <f>SUM(D21:D24)</f>
+        <v>6700</v>
+      </c>
       <c r="E25" s="2"/>
       <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
+      <c r="G25" s="4" t="s">
+        <v>7</v>
+      </c>
       <c r="H25" s="3"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="1"/>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="3"/>
+      <c r="A26" t="s">
+        <v>1</v>
+      </c>
+      <c r="B26" t="s">
+        <v>4</v>
+      </c>
+      <c r="C26" t="s">
+        <v>3</v>
+      </c>
+      <c r="D26" t="s">
+        <v>6</v>
+      </c>
+      <c r="E26" t="s">
+        <v>2</v>
+      </c>
+      <c r="F26" t="s">
+        <v>5</v>
+      </c>
+      <c r="G26" s="4"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="1"/>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="3"/>
+      <c r="A27" s="1">
+        <v>44576</v>
+      </c>
+      <c r="B27" s="2">
+        <v>2300</v>
+      </c>
+      <c r="C27" s="2">
+        <v>0</v>
+      </c>
+      <c r="D27" s="2">
+        <v>1900</v>
+      </c>
+      <c r="E27" s="2">
+        <v>350</v>
+      </c>
+      <c r="F27" s="3">
+        <f>B27-C27-D27-E27</f>
+        <v>50</v>
+      </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="1"/>
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="3"/>
+      <c r="A28" s="1">
+        <v>44583</v>
+      </c>
+      <c r="B28" s="2">
+        <v>2300</v>
+      </c>
+      <c r="C28" s="2">
+        <v>0</v>
+      </c>
+      <c r="D28" s="2">
+        <v>1900</v>
+      </c>
+      <c r="E28" s="2">
+        <v>350</v>
+      </c>
+      <c r="F28" s="3">
+        <f t="shared" ref="F28:F30" si="4">B28-C28-D28-E28</f>
+        <v>50</v>
+      </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D29" s="3"/>
+      <c r="A29" s="1">
+        <v>44590</v>
+      </c>
+      <c r="B29" s="2">
+        <v>2300</v>
+      </c>
+      <c r="C29" s="2">
+        <v>0</v>
+      </c>
+      <c r="D29" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E29" s="2">
+        <v>350</v>
+      </c>
+      <c r="F29" s="3">
+        <f t="shared" si="4"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>44597</v>
+      </c>
+      <c r="B30" s="2">
+        <v>2300</v>
+      </c>
+      <c r="C30" s="2">
+        <v>820</v>
+      </c>
+      <c r="D30" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E30" s="2">
+        <v>350</v>
+      </c>
+      <c r="F30" s="3">
+        <f t="shared" si="4"/>
+        <v>130</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D31" s="3">
+        <f>SUM(D27:D30)</f>
+        <v>6700</v>
+      </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
@@ -952,11 +1059,12 @@
       <c r="D37" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="G1:G2"/>
     <mergeCell ref="G7:G8"/>
     <mergeCell ref="G13:G14"/>
     <mergeCell ref="G19:G20"/>
+    <mergeCell ref="G25:G26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Sueldo y proyecto de RTX 3070.xlsx
+++ b/Sueldo y proyecto de RTX 3070.xlsx
@@ -391,8 +391,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -447,18 +447,18 @@
         <v>0</v>
       </c>
       <c r="D3" s="2">
-        <v>1550</v>
+        <v>1000</v>
       </c>
       <c r="E3" s="2">
         <v>350</v>
       </c>
       <c r="F3" s="3">
         <f>B3-C3-D3-E3</f>
-        <v>400</v>
+        <v>950</v>
       </c>
       <c r="G3" s="3">
         <f>F3+F4+F5+F6</f>
-        <v>1590</v>
+        <v>2140</v>
       </c>
       <c r="I3" s="3">
         <f>D7+D13+D19+D25+D31</f>

--- a/Sueldo y proyecto de RTX 3070.xlsx
+++ b/Sueldo y proyecto de RTX 3070.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HYDRA999\Documents\GitHub\Cortes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ELJAIDROSO\Documents\GitHub\Cortes\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB280869-6CBC-4EAE-93EB-C97F5F32929D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -59,7 +60,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
@@ -388,16 +389,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.140625" customWidth="1"/>
     <col min="4" max="4" width="17.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="21.42578125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="23.28515625" customWidth="1"/>
@@ -447,22 +448,22 @@
         <v>0</v>
       </c>
       <c r="D3" s="2">
-        <v>1000</v>
+        <v>775</v>
       </c>
       <c r="E3" s="2">
         <v>350</v>
       </c>
       <c r="F3" s="3">
         <f>B3-C3-D3-E3</f>
-        <v>950</v>
+        <v>1175</v>
       </c>
       <c r="G3" s="3">
         <f>F3+F4+F5+F6</f>
-        <v>2140</v>
+        <v>1606</v>
       </c>
       <c r="I3" s="3">
         <f>D7+D13+D19+D25+D31</f>
-        <v>30640</v>
+        <v>31175</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -476,15 +477,15 @@
         <v>0</v>
       </c>
       <c r="D4" s="2">
-        <f>700+240</f>
-        <v>940</v>
+        <f>775+700</f>
+        <v>1475</v>
       </c>
       <c r="E4" s="2">
         <v>350</v>
       </c>
       <c r="F4" s="3">
-        <f t="shared" ref="F4:F6" si="0">B4-C4-D4-E4</f>
-        <v>1010</v>
+        <f>B4-C4-D4-E4-224</f>
+        <v>251</v>
       </c>
       <c r="I4" s="2"/>
       <c r="J4" s="3"/>
@@ -506,7 +507,7 @@
         <v>350</v>
       </c>
       <c r="F5" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="F4:F6" si="0">B5-C5-D5-E5</f>
         <v>130</v>
       </c>
     </row>
@@ -536,7 +537,7 @@
       <c r="C7" s="2"/>
       <c r="D7" s="2">
         <f>SUM(D4:D6)</f>
-        <v>3840</v>
+        <v>4375</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="3"/>

--- a/Sueldo y proyecto de RTX 3070.xlsx
+++ b/Sueldo y proyecto de RTX 3070.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ELJAIDROSO\Documents\GitHub\Cortes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB280869-6CBC-4EAE-93EB-C97F5F32929D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8270262C-3EBE-404D-8B44-DB70DCA76A58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="1170" yWindow="1170" windowWidth="15375" windowHeight="7995" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="11">
   <si>
     <t>Saldo</t>
   </si>
@@ -55,6 +55,9 @@
   </si>
   <si>
     <t>Ingresos para el proyecto</t>
+  </si>
+  <si>
+    <t>Pago de ML</t>
   </si>
 </sst>
 </file>
@@ -393,7 +396,7 @@
   <dimension ref="A1:J37"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -433,6 +436,9 @@
         <v>5</v>
       </c>
       <c r="G2" s="4"/>
+      <c r="H2" t="s">
+        <v>10</v>
+      </c>
       <c r="I2" t="s">
         <v>9</v>
       </c>
@@ -459,7 +465,7 @@
       </c>
       <c r="G3" s="3">
         <f>F3+F4+F5+F6</f>
-        <v>1606</v>
+        <v>1605.8</v>
       </c>
       <c r="I3" s="3">
         <f>D7+D13+D19+D25+D31</f>
@@ -477,15 +483,17 @@
         <v>0</v>
       </c>
       <c r="D4" s="2">
-        <f>775+700</f>
         <v>1475</v>
       </c>
       <c r="E4" s="2">
         <v>350</v>
       </c>
       <c r="F4" s="3">
-        <f>B4-C4-D4-E4-224</f>
-        <v>251</v>
+        <f>B4-C4-D4-E4-H4</f>
+        <v>250.8</v>
+      </c>
+      <c r="H4" s="3">
+        <v>224.2</v>
       </c>
       <c r="I4" s="2"/>
       <c r="J4" s="3"/>
@@ -507,7 +515,7 @@
         <v>350</v>
       </c>
       <c r="F5" s="3">
-        <f t="shared" ref="F4:F6" si="0">B5-C5-D5-E5</f>
+        <f t="shared" ref="F5:F6" si="0">B5-C5-D5-E5</f>
         <v>130</v>
       </c>
     </row>
